--- a/docs/Mock_Students.xlsx
+++ b/docs/Mock_Students.xlsx
@@ -71,9 +71,6 @@
     <t>cafferoq@msoe.edu</t>
   </si>
   <si>
-    <t>Fay, Anthony</t>
-  </si>
-  <si>
     <t>faya@msoe.edu</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>mahnkem@msoe.edu</t>
+  </si>
+  <si>
+    <t>Tonster</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,13 +586,13 @@
         <v>159753</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -610,13 +610,13 @@
         <v>357951</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -634,13 +634,13 @@
         <v>789123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -658,13 +658,13 @@
         <v>123789</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
